--- a/server/public/templates/template_import_siswa.xlsx
+++ b/server/public/templates/template_import_siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E-Rapor_PBL\server\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7532A792-7C44-4445-9003-F3BBBB8E88EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007C017-4B9D-4056-BECA-13D9D143C63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{64C7BB62-96F4-434D-B995-5E80C48BB89C}"/>
+    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="9420" xr2:uid="{64C7BB62-96F4-434D-B995-5E80C48BB89C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
     <t>Batam</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Batu Aji</t>
+  </si>
+  <si>
+    <t>1 A</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,19 +527,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
